--- a/similarities/split_global/harmonic_similarity_timestamps_274.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_274.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,290 +484,300 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']]</t>
+          <t>['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min'], ['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min', 'B:7/A', 'E:min/G']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:38.300000', '0:00:50.540000'), ('0:00:44.180000', '0:00:55.220000')]</t>
+          <t>('0:00:13.120000', '0:00:23.420000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:37.040000', '0:01:51.740000'), ('0:00:13.820000', '0:00:43.980000')]</t>
+          <t>('0:00:12.120000', '0:00:18.460000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=38.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=44.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=97.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=13.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['C:maj', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:08.413696', '0:00:12.303038')]</t>
+          <t>('0:00:06.840000', '0:00:16.080000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+          <t>('0:00:57.500000', '0:00:59.680000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=6.84</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=57.5</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>isophonics_191</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C:min', 'F:min', 'Eb']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['Eb:min', 'Ab:min', 'Gb']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+          <t>('0:00:29.608000', '0:00:36.624000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+          <t>('0:00:00.412721', '0:00:06.310589')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=35.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=29.608</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=19.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=0.412721</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:08.700000', '0:00:32.100000')]</t>
+          <t>('0:01:00.436303', '0:01:14.066417')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:04.300000', '0:01:05.720000')]</t>
+          <t>('0:00:11.320000', '0:00:14.760000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=8.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=60.436303</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=11.32</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:01.052063', '0:01:13.416689')]</t>
+          <t>('0:01:22.070000', '0:01:30.900000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:13.700000', '0:01:16.860000')]</t>
+          <t>('0:01:06.920000', '0:01:17.920000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=61.052063']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=73.7']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=66.92</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>jaah_64</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['F:maj6', 'G:7', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['A:min7', 'D:7', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:42.440000', '0:00:44.360000')]</t>
+          <t>('0:00:08.540000', '0:00:14')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
+          <t>('0:00:24.030000', '0:00:28.410000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=8.54</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=24.03</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -777,37 +787,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>isophonics_10</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>['C', 'D:min', 'D:min7']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>['D/3', 'E:min', 'E:min7/b7']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
+          <t>('0:00:36.125011', '0:00:40.989591')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:13.660000', '0:00:24.820000')]</t>
+          <t>('0:02:58.637000', '0:03:03.740000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=27.789047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=36.125011</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=13.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-10#t=178.637</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -815,379 +825,389 @@
           <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_20</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min', 'A#:maj']]</t>
+          <t>['B:maj', 'F#:7', 'B:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'Ab']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:55.700000', '0:01:06.060000')]</t>
+          <t>('0:00:00.320000', '0:00:09.540000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:45.670000', '0:00:51.020000')]</t>
+          <t>('0:04:14.260000', '0:04:20.200000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=55.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=45.67']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['D', 'A', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:28.440000')]</t>
+          <t>('0:00:16.562199', '0:00:24.735623')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:30.050000', '0:00:38.220000')]</t>
+          <t>('0:01:06.260000', '0:01:12.240000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=16.562199</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.05']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=66.26</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E', 'A/3', 'E/5', 'A/3']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'G', 'C/5']]</t>
+          <t>['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:47.176000', '0:00:54.592000')]</t>
+          <t>('0:04:02.220000', '0:04:09.260000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:08.771904', '0:00:16.853782')]</t>
+          <t>('0:03:56.780000', '0:04:09.140000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=47.176']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=242.22</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=8.771904']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=236.78</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['E:min', 'A:min', 'E:min']]</t>
+          <t>['C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:10.220000', '0:00:20.160000')]</t>
+          <t>('0:00:01.240000', '0:00:09.940000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:00.506000', '0:00:08.175000')]</t>
+          <t>('0:00:34.380000', '0:00:52.440000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=10.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=1.24</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=0.506']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=34.38</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Eb', 'C:7', 'F:min']]</t>
+          <t>['G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:7/G#', 'A:min']]</t>
+          <t>['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:05.970000', '0:01:10.650000')]</t>
+          <t>('0:00:32.540000', '0:00:43.920000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:12.080000', '0:01:15.720000')]</t>
+          <t>('0:01:37.040000', '0:01:51.740000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=65.97']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=32.54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=72.08']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=97.04</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['A:7/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:12.430000', '0:00:17.230000')]</t>
+          <t>('0:00:05.160000', '0:00:11.100000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:08.080000', '0:01:20.280000')]</t>
+          <t>('0:00:18.954550', '0:00:24.340331')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=5.16</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=68.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=18.95455</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>isophonics_259</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G', 'C', 'D']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['A', 'D', 'E']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:18.120000', '0:00:24.540000')]</t>
+          <t>('0:00:16.608639', '0:00:24.317664')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:22.290863', '0:01:33.575761')]</t>
+          <t>('0:00:47.187000', '0:00:57.707000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=16.608639</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=47.187</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>isophonics_248</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['B', 'E', 'A']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F#/4', 'B', 'E/5']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:25.180000', '0:00:55.620000')]</t>
+          <t>('0:00:31.172811', '0:00:46.428321')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:32.080000', '0:00:45.580000')]</t>
+          <t>('0:02:07.431000', '0:02:12.656000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=25.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=31.172811</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=127.431</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
